--- a/data/2015_data.xlsx
+++ b/data/2015_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_885E1FC7EE9128E82A160BA823DFFA57512F3A13" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{0BBD631F-0184-4322-AE9E-80B4475F3054}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="280">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,541 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Thinking Out Loud</t>
   </si>
   <si>
+    <t>See You Again</t>
+  </si>
+  <si>
+    <t>Trap Queen</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Shut Up And Dance</t>
+  </si>
+  <si>
+    <t>Blank Space</t>
+  </si>
+  <si>
+    <t>Watch Me</t>
+  </si>
+  <si>
+    <t>Earned It (Fifty Shades Of Grey)</t>
+  </si>
+  <si>
+    <t>The Hills</t>
+  </si>
+  <si>
+    <t>Cheerleader</t>
+  </si>
+  <si>
+    <t>Can't Feel My Face</t>
+  </si>
+  <si>
+    <t>Take Me To Church</t>
+  </si>
+  <si>
+    <t>Bad Blood</t>
+  </si>
+  <si>
+    <t>Lean On</t>
+  </si>
+  <si>
+    <t>Want To Want Me</t>
+  </si>
+  <si>
+    <t>Shake It Off</t>
+  </si>
+  <si>
+    <t>Where Are U Now</t>
+  </si>
+  <si>
+    <t>Fight Song</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>Lips Are Movin</t>
+  </si>
+  <si>
+    <t>Worth It</t>
+  </si>
+  <si>
+    <t>Post To Be</t>
+  </si>
+  <si>
+    <t>Honey, I'm Good.</t>
+  </si>
+  <si>
+    <t>I'm Not The Only One</t>
+  </si>
+  <si>
+    <t>Good For You</t>
+  </si>
+  <si>
+    <t>All About That Bass</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Hotline Bling</t>
+  </si>
+  <si>
+    <t>Hey Mama</t>
+  </si>
+  <si>
+    <t>G.D.F.R.</t>
+  </si>
+  <si>
+    <t>What Do You Mean?</t>
+  </si>
+  <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Stitches</t>
+  </si>
+  <si>
+    <t>Talking Body</t>
+  </si>
+  <si>
+    <t>Jealous</t>
+  </si>
+  <si>
+    <t>Time Of Our Lives</t>
+  </si>
+  <si>
+    <t>Locked Away</t>
+  </si>
+  <si>
+    <t>Somebody</t>
+  </si>
+  <si>
+    <t>FourFiveSeconds</t>
+  </si>
+  <si>
+    <t>Centuries</t>
+  </si>
+  <si>
+    <t>My Way</t>
+  </si>
+  <si>
+    <t>Take Your Time</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>I Don't F**k With You</t>
+  </si>
+  <si>
+    <t>B**** Better Have My Money</t>
+  </si>
+  <si>
+    <t>Flex (Ooh Ooh Ooh)</t>
+  </si>
+  <si>
+    <t>Nasty Freestyle</t>
+  </si>
+  <si>
+    <t>Only</t>
+  </si>
+  <si>
+    <t>Elastic Heart</t>
+  </si>
+  <si>
+    <t>Cool For The Summer</t>
+  </si>
+  <si>
+    <t>Renegades</t>
+  </si>
+  <si>
+    <t>I Don't Mind</t>
+  </si>
+  <si>
+    <t>Love Me Harder</t>
+  </si>
+  <si>
+    <t>Wildest Dreams</t>
+  </si>
+  <si>
+    <t>Stay With Me</t>
+  </si>
+  <si>
+    <t>You Know You Like It</t>
+  </si>
+  <si>
+    <t>Uma Thurman</t>
+  </si>
+  <si>
+    <t>7/11</t>
+  </si>
+  <si>
+    <t>The Heart Wants What It Wants</t>
+  </si>
+  <si>
+    <t>Girl Crush</t>
+  </si>
+  <si>
+    <t>Slow Motion</t>
+  </si>
+  <si>
+    <t>Drag Me Down</t>
+  </si>
+  <si>
+    <t>Truffle Butter</t>
+  </si>
+  <si>
+    <t>One Last Time</t>
+  </si>
+  <si>
+    <t>Chains</t>
+  </si>
+  <si>
+    <t>All Eyes On You</t>
+  </si>
+  <si>
+    <t>No Type</t>
+  </si>
+  <si>
+    <t>Riptide</t>
+  </si>
+  <si>
+    <t>Classic Man</t>
+  </si>
+  <si>
+    <t>Ex's &amp; Oh's</t>
+  </si>
+  <si>
+    <t>Dear Future Husband</t>
+  </si>
+  <si>
+    <t>Marvin Gaye</t>
+  </si>
+  <si>
+    <t>Like I'm Gonna Lose You</t>
+  </si>
+  <si>
+    <t>Habits (Stay High)</t>
+  </si>
+  <si>
+    <t>The Hanging Tree</t>
+  </si>
+  <si>
+    <t>CoCo</t>
+  </si>
+  <si>
+    <t>Bang Bang</t>
+  </si>
+  <si>
+    <t>Lay Me Down</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Hit The Quan</t>
+  </si>
+  <si>
+    <t>Downtown</t>
+  </si>
+  <si>
+    <t>House Party</t>
+  </si>
+  <si>
+    <t>Ayo</t>
+  </si>
+  <si>
+    <t>Kick The Dust Up</t>
+  </si>
+  <si>
+    <t>Blessings</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Chandelier</t>
+  </si>
+  <si>
+    <t>Heartbeat Song</t>
+  </si>
+  <si>
+    <t>Don't</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Here</t>
+  </si>
+  <si>
+    <t>Waves</t>
+  </si>
+  <si>
+    <t>El Perdon (Forgiveness)</t>
+  </si>
+  <si>
+    <t>She Knows</t>
+  </si>
+  <si>
+    <t>Night Changes</t>
+  </si>
+  <si>
+    <t>Back To Back</t>
+  </si>
+  <si>
+    <t>How Deep Is Your Love</t>
+  </si>
+  <si>
     <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Wiz Khalifa Featuring Charlie Puth</t>
+  </si>
+  <si>
+    <t>Fetty Wap</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>WALK THE MOON</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Silento</t>
+  </si>
+  <si>
+    <t>The Weeknd</t>
+  </si>
+  <si>
+    <t>OMI</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>Hozier</t>
+  </si>
+  <si>
+    <t>Taylor Swift Featuring Kendrick Lamar</t>
+  </si>
+  <si>
+    <t>Major Lazer &amp; DJ Snake Featuring MO</t>
+  </si>
+  <si>
+    <t>Jason Derulo</t>
+  </si>
+  <si>
+    <t>Skrillex &amp; Diplo With Justin Bieber</t>
+  </si>
+  <si>
+    <t>Rachel Platten</t>
+  </si>
+  <si>
+    <t>Fetty Wap Featuring Remy Boyz</t>
+  </si>
+  <si>
+    <t>Meghan Trainor</t>
+  </si>
+  <si>
+    <t>Fifth Harmony Featuring Kid Ink</t>
+  </si>
+  <si>
+    <t>Omarion Featuring Chris Brown &amp; Jhene Aiko</t>
+  </si>
+  <si>
+    <t>Andy Grammer</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>Selena Gomez Featuring A$AP Rocky</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>David Guetta Featuring Nicki Minaj, Bebe Rexha &amp; Afrojack</t>
+  </si>
+  <si>
+    <t>Flo Rida Featuring Sage The Gemini &amp; Lookas</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Shawn Mendes</t>
+  </si>
+  <si>
+    <t>Tove Lo</t>
+  </si>
+  <si>
+    <t>Nick Jonas</t>
+  </si>
+  <si>
+    <t>Pitbull &amp; Ne-Yo</t>
+  </si>
+  <si>
+    <t>R. City Featuring Adam Levine</t>
+  </si>
+  <si>
+    <t>Natalie La Rose Featuring Jeremih</t>
+  </si>
+  <si>
+    <t>Rihanna &amp; Kanye West &amp; Paul McCartney</t>
+  </si>
+  <si>
+    <t>Fall Out Boy</t>
+  </si>
+  <si>
+    <t>Fetty Wap Featuring Monty</t>
+  </si>
+  <si>
+    <t>Sam Hunt</t>
+  </si>
+  <si>
+    <t>Big Sean Featuring E-40</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Rich Homie Quan</t>
+  </si>
+  <si>
+    <t>T-Wayne</t>
+  </si>
+  <si>
+    <t>Nicki Minaj Featuring Drake, Lil Wayne &amp; Chris Brown</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Demi Lovato</t>
+  </si>
+  <si>
+    <t>X Ambassadors</t>
+  </si>
+  <si>
+    <t>Usher Featuring Juicy J</t>
+  </si>
+  <si>
+    <t>Ariana Grande &amp; The Weeknd</t>
+  </si>
+  <si>
+    <t>DJ Snake &amp; AlunaGeorge</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Little Big Town</t>
+  </si>
+  <si>
+    <t>Trey Songz</t>
+  </si>
+  <si>
+    <t>One Direction</t>
+  </si>
+  <si>
+    <t>Nicki Minaj Featuring Drake &amp; Lil Wayne</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>Meek Mill Featuring Chris Brown &amp; Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Rae Sremmurd</t>
+  </si>
+  <si>
+    <t>Vance Joy</t>
+  </si>
+  <si>
+    <t>Jidenna Featuring Roman GianArthur</t>
+  </si>
+  <si>
+    <t>Elle King</t>
+  </si>
+  <si>
+    <t>Charlie Puth Featuring Meghan Trainor</t>
+  </si>
+  <si>
+    <t>Meghan Trainor Featuring John Legend</t>
+  </si>
+  <si>
+    <t>James Newton Howard Featuring Jennifer Lawrence</t>
+  </si>
+  <si>
+    <t>O.T. Genasis</t>
+  </si>
+  <si>
+    <t>Jessie J, Ariana Grande &amp; Nicki Minaj</t>
+  </si>
+  <si>
+    <t>I LOVE MAKONNEN Featuring Drake</t>
+  </si>
+  <si>
+    <t>iLoveMemphis</t>
+  </si>
+  <si>
+    <t>Macklemore &amp; Ryan Lewis Featuring Eric Nally, Melle Mel, Kool Moe Dee &amp; Grandmaster Caz</t>
+  </si>
+  <si>
+    <t>Chris Brown &amp; Tyga</t>
+  </si>
+  <si>
+    <t>Luke Bryan</t>
+  </si>
+  <si>
+    <t>Big Sean Featuring Drake</t>
+  </si>
+  <si>
+    <t>George Ezra</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>Ella Henderson</t>
+  </si>
+  <si>
+    <t>Alessia Cara</t>
+  </si>
+  <si>
+    <t>Mr. Probz</t>
+  </si>
+  <si>
+    <t>Nicky Jam &amp; Enrique Iglesias</t>
+  </si>
+  <si>
+    <t>Ne-Yo Featuring Juicy J</t>
+  </si>
+  <si>
+    <t>Calvin Harris &amp; Disciples</t>
   </si>
   <si>
     <t>When your legs don't work like they used to before
@@ -72,12 +609,6 @@
 That maybe we found love right where we are
 Oh, baby, we found love right where we are
 And we found love right where we are</t>
-  </si>
-  <si>
-    <t>See You Again</t>
-  </si>
-  <si>
-    <t>Wiz Khalifa Featuring Charlie Puth</t>
   </si>
   <si>
     <t>It's been a long day without you, my friend
@@ -130,12 +661,6 @@
 See you again (Yeah, yeah, yeah)
 Ooh-ooh (Uh-huh, yup)
 When I see you again</t>
-  </si>
-  <si>
-    <t>Trap Queen</t>
-  </si>
-  <si>
-    <t>Fetty Wap</t>
   </si>
   <si>
     <t>RGF Productions
@@ -208,12 +733,6 @@
 Put up or shut up, huh?
 Nitt Da Gritt, huh, RGF Productions
 Squad</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Maroon 5</t>
   </si>
   <si>
     <t>I'm hurting, baby, I'm broken down
@@ -303,12 +822,6 @@
 (Down on me, down on me)</t>
   </si>
   <si>
-    <t>Shut Up And Dance</t>
-  </si>
-  <si>
-    <t>WALK THE MOON</t>
-  </si>
-  <si>
     <t>Oh don't you dare look back
 Just keep your eyes on me.
 I said you're holding back,She said shut up and dance with me!
@@ -366,12 +879,6 @@
 She said oh oh oh
 Shut up and dance with me
 Oh oh oh shut up dance with me</t>
-  </si>
-  <si>
-    <t>Blank Space</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
   </si>
   <si>
     <t>Nice to meet you, where you been?
@@ -457,18 +964,6 @@
 And I'll write your name</t>
   </si>
   <si>
-    <t>Watch Me</t>
-  </si>
-  <si>
-    <t>Silento</t>
-  </si>
-  <si>
-    <t>Earned It (Fifty Shades Of Grey)</t>
-  </si>
-  <si>
-    <t>The Weeknd</t>
-  </si>
-  <si>
     <t>You make it look like it's magic (Oh yeah)
 'Cause I see nobody, nobody but you, you, you
 I'm never confusedHey, hey
@@ -517,9 +1012,6 @@
 You deserve it
 Girl, you deserve it
 Girl, you earned it, yeah</t>
-  </si>
-  <si>
-    <t>The Hills</t>
   </si>
   <si>
     <t>Your man on the road, he doin' promo
@@ -575,12 +1067,6 @@
 Yene konjo, ewedihalehu
 Yene fikir, fikir, fikir, fikir
 Yene fikir, fikir, fikir, fikir</t>
-  </si>
-  <si>
-    <t>Cheerleader</t>
-  </si>
-  <si>
-    <t>OMI</t>
   </si>
   <si>
     <t>When I need motivation
@@ -640,9 +1126,6 @@
 She is always right there when I need her</t>
   </si>
   <si>
-    <t>Can't Feel My Face</t>
-  </si>
-  <si>
     <t>And I know she'll be the death of me, at least we'll both be numb
 And she'll always get the best of me, the worst is yet to come
 But at least we'll both be beautiful and stay forever youngThis I know, yeah, this I know
@@ -678,18 +1161,6 @@
 But I love it, but I love it, oh
 I can't feel my face when I'm with you
 But I love it, but I love it, oh</t>
-  </si>
-  <si>
-    <t>Love Me Like You Do</t>
-  </si>
-  <si>
-    <t>Ellie Goulding</t>
-  </si>
-  <si>
-    <t>Take Me To Church</t>
-  </si>
-  <si>
-    <t>Hozier</t>
   </si>
   <si>
     <t>My lover's got humor
@@ -757,12 +1228,6 @@
 I'll tell you my sins and you can sharpen your knife
 Offer me that deathless death
 Oh good God, let me give you my life</t>
-  </si>
-  <si>
-    <t>Bad Blood</t>
-  </si>
-  <si>
-    <t>Taylor Swift Featuring Kendrick Lamar</t>
   </si>
   <si>
     <t>'Cause, baby, now we've got bad blood
@@ -834,12 +1299,6 @@
 And, baby, now we've got bad blood, hey!</t>
   </si>
   <si>
-    <t>Lean On</t>
-  </si>
-  <si>
-    <t>Major Lazer &amp; DJ Snake Featuring MO</t>
-  </si>
-  <si>
     <t>Do you recall, not long ago
 We would walk on the sidewalk?
 Innocent, remember?All we did was care for each other
@@ -886,12 +1345,6 @@
 We need someone to lean on
 Blow a kiss, fire a gun
 All we need is somebody to lean on</t>
-  </si>
-  <si>
-    <t>Want To Want Me</t>
-  </si>
-  <si>
-    <t>Jason Derulo</t>
   </si>
   <si>
     <t>It's too hard to sleep
@@ -955,9 +1408,6 @@
 Just to get up next to you
 Just to get up next to you
 Get up, get up</t>
-  </si>
-  <si>
-    <t>Shake It Off</t>
   </si>
   <si>
     <t>I stay out too late
@@ -1034,12 +1484,6 @@
 I, I, I shake it off, I shake it off</t>
   </si>
   <si>
-    <t>Where Are U Now</t>
-  </si>
-  <si>
-    <t>Skrillex &amp; Diplo With Justin Bieber</t>
-  </si>
-  <si>
     <t>I need you the, I need you, I need you the, I need you, I need you
 I need you the, I need you, I need you the, I need you, I need you
 You the, I need you the mostI gave you the key when the door wasn't open
@@ -1072,12 +1516,6 @@
 Where are you now that I need ya?
 Where are you now that I need ya?
 I need you the most</t>
-  </si>
-  <si>
-    <t>Fight Song</t>
-  </si>
-  <si>
-    <t>Rachel Platten</t>
   </si>
   <si>
     <t>Like a small boat on the ocean
@@ -1139,12 +1577,6 @@
 'Cause I've still got
 A lot of fight left in me
 Now I've still got a lot of fight left in me</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>Fetty Wap Featuring Remy Boyz</t>
   </si>
   <si>
     <t>Yeaaah baby, 17
@@ -1219,12 +1651,6 @@
 Yeaah, yeaaah</t>
   </si>
   <si>
-    <t>Lips Are Movin</t>
-  </si>
-  <si>
-    <t>Meghan Trainor</t>
-  </si>
-  <si>
     <t>If your lips are moving, if your lips are moving
 If your lips are moving then you're ly-ly-lying, baby
 If your lips are moving, if your lips are movingIf your lips are moving then you're ly-ly-lying, baby
@@ -1280,12 +1706,6 @@
 Saying now I'm your number one
 But I know you lie 'cause your lips are moving,
 Baby, don't you know, I'm done!</t>
-  </si>
-  <si>
-    <t>Worth It</t>
-  </si>
-  <si>
-    <t>Fifth Harmony Featuring Kid Ink</t>
   </si>
   <si>
     <t>Give it to me, I'm worth it
@@ -1363,12 +1783,6 @@
 Uh huh, I'm worth it
 Gimme gimme I'm worth it
 Give it to me, I'm worth it</t>
-  </si>
-  <si>
-    <t>Post To Be</t>
-  </si>
-  <si>
-    <t>Omarion Featuring Chris Brown &amp; Jhene Aiko</t>
   </si>
   <si>
     <t>Omarion
@@ -1459,12 +1873,6 @@
 I'll make him do it</t>
   </si>
   <si>
-    <t>Honey, I'm Good.</t>
-  </si>
-  <si>
-    <t>Andy Grammer</t>
-  </si>
-  <si>
     <t>Nah nah, honey I'm good
 I could have another but I probably should not
 I've got somebody at homeIt's been a long night here, and a long night there
@@ -1520,12 +1928,6 @@
 I will stay true</t>
   </si>
   <si>
-    <t>I'm Not The Only One</t>
-  </si>
-  <si>
-    <t>Sam Smith</t>
-  </si>
-  <si>
     <t>You and me, we made a vow
 For better or for worse
 I can't believe you let me downBut the proof is in the way it hurts
@@ -1562,12 +1964,6 @@
 And I know, and I know, and I know
 And I know, and I know, and I know, know
 I know I'm not the only one</t>
-  </si>
-  <si>
-    <t>Good For You</t>
-  </si>
-  <si>
-    <t>Selena Gomez Featuring A$AP Rocky</t>
   </si>
   <si>
     <t>I'm on my 14 carats
@@ -1629,9 +2025,6 @@
 And still look good for you, good for you, uh-huh, uh-huh, ah...
 Uh-huh, uh-huh...
 Trust me, I, trust me, I, trust me, I</t>
-  </si>
-  <si>
-    <t>All About That Bass</t>
   </si>
   <si>
     <t>Because you know I'm all about that bass
@@ -1702,9 +2095,6 @@
 You know you love this bass, ayy</t>
   </si>
   <si>
-    <t>Style</t>
-  </si>
-  <si>
     <t>Midnight
 You come and pick me up, no headlights
 Long driveCould end in burning flames or paradise
@@ -1746,12 +2136,6 @@
 And I got that red lip classic thing that you like
 And when we go crashing down we come back every time
 'Cause we never go out of style, we never go out of style</t>
-  </si>
-  <si>
-    <t>Hotline Bling</t>
-  </si>
-  <si>
-    <t>Drake</t>
   </si>
   <si>
     <t>You used to call me on my
@@ -1819,12 +2203,6 @@
 Ever since I left the city...</t>
   </si>
   <si>
-    <t>Hey Mama</t>
-  </si>
-  <si>
-    <t>David Guetta Featuring Nicki Minaj, Bebe Rexha &amp; Afrojack</t>
-  </si>
-  <si>
     <t>Be my woman, girl, I'll be your man
 Be my woman, girl, I'll be your man (Yeah)Yes, I'll be your woman, yes, I'll be your baby
 Yes, I'll be whatever that you tell me when you're ready
@@ -1884,12 +2262,6 @@
 Like, hey mama, mama, hey mama, ma (Hey)
 Be my woman, girl, I'll be your man
 Be my woman, girl, I'll be your man</t>
-  </si>
-  <si>
-    <t>G.D.F.R.</t>
-  </si>
-  <si>
-    <t>Flo Rida Featuring Sage The Gemini &amp; Lookas</t>
   </si>
   <si>
     <t>I know what you came here to see
@@ -1957,12 +2329,6 @@
 It's going down for real
 It's going down for real
 It's going down for real</t>
-  </si>
-  <si>
-    <t>What Do You Mean?</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
   </si>
   <si>
     <t>What do you mean? Oh, oh
@@ -2034,9 +2400,6 @@
 What do you mean?</t>
   </si>
   <si>
-    <t>Photograph</t>
-  </si>
-  <si>
     <t>Loving can hurt
 Loving can hurt sometimes
 But it's the only thingThat I know
@@ -2098,12 +2461,6 @@
 Wait for me to come home</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
     <t>Hello, it's me
 I was wondering if after all these years you'd like to meet
 To go over everythingThey say that time's supposed to heal ya
@@ -2147,12 +2504,6 @@
 At least I can say that I've tried
 To tell you I'm sorry for breaking your heart
 But it don't matter, it clearly doesn't tear you apart anymore</t>
-  </si>
-  <si>
-    <t>Stitches</t>
-  </si>
-  <si>
-    <t>Shawn Mendes</t>
   </si>
   <si>
     <t>I thought that I'd been hurt before
@@ -2214,12 +2565,6 @@
 I'll be needing stitches
 And now that I'm without your kisses
 I'll be needing stitches</t>
-  </si>
-  <si>
-    <t>Talking Body</t>
-  </si>
-  <si>
-    <t>Tove Lo</t>
   </si>
   <si>
     <t>Hey
@@ -2311,12 +2656,6 @@
 On and on and on (Hey)</t>
   </si>
   <si>
-    <t>Jealous</t>
-  </si>
-  <si>
-    <t>Nick Jonas</t>
-  </si>
-  <si>
     <t>I don't like the way he's looking at you
 I'm starting to think you want him too
 Am I crazy? Have I lost ya?Even though I know you love me, can't help it
@@ -2380,12 +2719,6 @@
 I still get jealous
 Oh (that's why)
 I still get jealous</t>
-  </si>
-  <si>
-    <t>Time Of Our Lives</t>
-  </si>
-  <si>
-    <t>Pitbull &amp; Ne-Yo</t>
   </si>
   <si>
     <t>I knew my rent was gon' be late about a week ago
@@ -2480,12 +2813,6 @@
 Let's get it now</t>
   </si>
   <si>
-    <t>Locked Away</t>
-  </si>
-  <si>
-    <t>R. City Featuring Adam Levine</t>
-  </si>
-  <si>
     <t>If I got locked away
 And we lost it all today
 Tell me, honestlyWould you still love me the same?
@@ -2566,18 +2893,6 @@
 Would you still love me the same?</t>
   </si>
   <si>
-    <t>Somebody</t>
-  </si>
-  <si>
-    <t>Natalie La Rose Featuring Jeremih</t>
-  </si>
-  <si>
-    <t>FourFiveSeconds</t>
-  </si>
-  <si>
-    <t>Rihanna &amp; Kanye West &amp; Paul McCartney</t>
-  </si>
-  <si>
     <t>I think I've had enough
 I might get a little drunk
 I say what's on my mindI might do a little time
@@ -2621,12 +2936,6 @@
 Just tryna make it back home by Monday mornin'
 I swear I wish somebody would tell me
 'Cause that's all I want</t>
-  </si>
-  <si>
-    <t>Centuries</t>
-  </si>
-  <si>
-    <t>Fall Out Boy</t>
   </si>
   <si>
     <t>Du-du-du-du-du-du-du
@@ -2702,12 +3011,6 @@
 Remember me for centuries</t>
   </si>
   <si>
-    <t>My Way</t>
-  </si>
-  <si>
-    <t>Fetty Wap Featuring Monty</t>
-  </si>
-  <si>
     <t>Baby, won't you come my way?
 Got something I want to say
 Cannot keep you out my brainBut first off I'mma start by saying this, ayy
@@ -2763,12 +3066,6 @@
 And I'm too turnt, when I shoot, swear I won't miss, ayy
 Ba-Baby, won't you come my way?
 Baby, won't you come my way?</t>
-  </si>
-  <si>
-    <t>Take Your Time</t>
-  </si>
-  <si>
-    <t>Sam Hunt</t>
   </si>
   <si>
     <t>I don't know if you were looking at me or not
@@ -2831,9 +3128,6 @@
 And I ain't gotta call you mine
 I don't have to take your heart
 I just wanna take your time</t>
-  </si>
-  <si>
-    <t>Animals</t>
   </si>
   <si>
     <t>Baby, I'm preying on you tonight
@@ -2920,12 +3214,6 @@
 You can't deny, ny, ny, ny
 That beast inside, side, side, side
 Yeah, yeah, yeah</t>
-  </si>
-  <si>
-    <t>I Don't F**k With You</t>
-  </si>
-  <si>
-    <t>Big Sean Featuring E-40</t>
   </si>
   <si>
     <t>I don't fuck with you
@@ -3021,12 +3309,6 @@
 I ain't fuckin' with you</t>
   </si>
   <si>
-    <t>B**** Better Have My Money</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
     <t>Yayo, yayo
 Moo-la-lah
 YayoBitch better have my money!
@@ -3082,12 +3364,6 @@
 Yo, my money!
 That bitch better have my money!
 Bitch better have my money!</t>
-  </si>
-  <si>
-    <t>Flex (Ooh Ooh Ooh)</t>
-  </si>
-  <si>
-    <t>Rich Homie Quan</t>
   </si>
   <si>
     <t>Hey, oh, there it is, there it is, there it is
@@ -3150,12 +3426,6 @@
 Hey, get at me</t>
   </si>
   <si>
-    <t>Nasty Freestyle</t>
-  </si>
-  <si>
-    <t>T-Wayne</t>
-  </si>
-  <si>
     <t>First let me hop out the motherfucking Porsche
 I don't want her if that ass don't sit like a horse
 I be balling on these niggas got me feeling like sportsDash got so much wood I could build me a fort
@@ -3204,12 +3474,6 @@
 Been about the money I ain't worried 'bout the fame
 'Bout to have everybody saying, "Who is Ricky Wayne?"
 That's me...</t>
-  </si>
-  <si>
-    <t>Only</t>
-  </si>
-  <si>
-    <t>Nicki Minaj Featuring Drake, Lil Wayne &amp; Chris Brown</t>
   </si>
   <si>
     <t>Yo
@@ -3322,12 +3586,6 @@
 I got my real n- here by my side, only</t>
   </si>
   <si>
-    <t>Elastic Heart</t>
-  </si>
-  <si>
-    <t>Sia</t>
-  </si>
-  <si>
     <t>And another one bites the dust
 Oh, why can I not conquer love?
 And I might have thought that we were oneWanted to fight this war without weapons
@@ -3376,12 +3634,6 @@
 I've got an elastic heart.</t>
   </si>
   <si>
-    <t>Cool For The Summer</t>
-  </si>
-  <si>
-    <t>Demi Lovato</t>
-  </si>
-  <si>
     <t>Tell me what you want, what you like, it's okay
 I'm a little curious too
 Tell me if it's wrong, if it's right, I don't careI can keep a secret, can you?
@@ -3427,12 +3679,6 @@
 We're cool for the summer</t>
   </si>
   <si>
-    <t>Renegades</t>
-  </si>
-  <si>
-    <t>X Ambassadors</t>
-  </si>
-  <si>
     <t>Run away-ay with me
 Lost souls in revelry
 Running wild and running freeTwo kids, you and me
@@ -3472,12 +3718,6 @@
 Livin' like we're renegades
 Renegades
 Renegades</t>
-  </si>
-  <si>
-    <t>I Don't Mind</t>
-  </si>
-  <si>
-    <t>Usher Featuring Juicy J</t>
   </si>
   <si>
     <t>Yeah
@@ -3565,12 +3805,6 @@
 Long as you coming home, girl, I don't mind</t>
   </si>
   <si>
-    <t>Love Me Harder</t>
-  </si>
-  <si>
-    <t>Ariana Grande &amp; The Weeknd</t>
-  </si>
-  <si>
     <t>Tell me something I need to know
 Then take my breath and never let it go
 If you just let me invade your spaceI'll take the pleasure, take it with the pain
@@ -3635,9 +3869,6 @@
 Harder, harder, harder</t>
   </si>
   <si>
-    <t>Wildest Dreams</t>
-  </si>
-  <si>
     <t>He said, "Let's get out of this town
 Drive out of the city, away from the crowds"
 I thought heaven can't help me nowNothing lasts forever, but this is gonna take me down
@@ -3694,9 +3925,6 @@
 In your wildest dreams, ah-ha</t>
   </si>
   <si>
-    <t>Stay With Me</t>
-  </si>
-  <si>
     <t>Guess it's true, I'm not good at a one night stand
 But I still need love 'cause I'm just a man
 These nights never seem to go to planI don't want you to leave will you hold my hand?
@@ -3725,12 +3953,6 @@
 This ain't love its clear to see
 But darling
 Stay with me</t>
-  </si>
-  <si>
-    <t>You Know You Like It</t>
-  </si>
-  <si>
-    <t>DJ Snake &amp; AlunaGeorge</t>
   </si>
   <si>
     <t>Some people want me to be heads or tails
@@ -3776,9 +3998,6 @@
 Drives you insane
 Drives you insane
 Drives you insane</t>
-  </si>
-  <si>
-    <t>Uma Thurman</t>
   </si>
   <si>
     <t>I can move mountains
@@ -3828,12 +4047,6 @@
 I can work a miracle, work a miracle
 Oh, oh, oh, I'll keep you like an oath
 May nothing but death do us part</t>
-  </si>
-  <si>
-    <t>7/11</t>
-  </si>
-  <si>
-    <t>Beyonce</t>
   </si>
   <si>
     <t>I've been drinking, I've been drinking
@@ -3922,12 +4135,6 @@
 We be all night, love, love</t>
   </si>
   <si>
-    <t>The Heart Wants What It Wants</t>
-  </si>
-  <si>
-    <t>Selena Gomez</t>
-  </si>
-  <si>
     <t>What the heart wants, what the heart wants
 What the heart wants, wants, wants, wants
 You got me sippin' on somethingI can't compare to nothing
@@ -3986,12 +4193,6 @@
 It wants what it want</t>
   </si>
   <si>
-    <t>Girl Crush</t>
-  </si>
-  <si>
-    <t>Little Big Town</t>
-  </si>
-  <si>
     <t>I've got a girl crush
 Hate to admit it but
 I got a hard rushIt's slowin' down
@@ -4030,12 +4231,6 @@
 Hate to admit it but
 I got a heart rush
 It ain't slowin' down</t>
-  </si>
-  <si>
-    <t>Slow Motion</t>
-  </si>
-  <si>
-    <t>Trey Songz</t>
   </si>
   <si>
     <t>I know you got all dressed up for the club
@@ -4080,12 +4275,6 @@
 We can take, we can take, we can take our time, baby
 In slow motion
 We can take, we can take, we can take our time, stay here</t>
-  </si>
-  <si>
-    <t>Drag Me Down</t>
-  </si>
-  <si>
-    <t>One Direction</t>
   </si>
   <si>
     <t>I've got fire for a heart
@@ -4143,12 +4332,6 @@
 Nobody can drag me down
 Nobody, nobody
 Nobody can drag me down</t>
-  </si>
-  <si>
-    <t>Truffle Butter</t>
-  </si>
-  <si>
-    <t>Nicki Minaj Featuring Drake &amp; Lil Wayne</t>
   </si>
   <si>
     <t>(You know, uhn, uhn, uhn
@@ -4221,12 +4404,6 @@
 You know, uhn, uhn, uhn)</t>
   </si>
   <si>
-    <t>One Last Time</t>
-  </si>
-  <si>
-    <t>Ariana Grande</t>
-  </si>
-  <si>
     <t>I was a liar, I gave into the fire
 I know I should've fought it at least I'm being honest
 Feel like a failure, cause I know that I failed youI should've done you better cause you don't want a liar
@@ -4271,9 +4448,6 @@
 I need to be the one who takes you home
 One last time
 I need to be the one who takes you home</t>
-  </si>
-  <si>
-    <t>Chains</t>
   </si>
   <si>
     <t>With her wine-stained lips
@@ -4322,12 +4496,6 @@
 No, I wouldn't change this love
 Tried to break the chains
 But the chains only break me</t>
-  </si>
-  <si>
-    <t>All Eyes On You</t>
-  </si>
-  <si>
-    <t>Meek Mill Featuring Chris Brown &amp; Nicki Minaj</t>
   </si>
   <si>
     <t>Yeye Yeahhhhh.
@@ -4397,12 +4565,6 @@
 All eyes on you</t>
   </si>
   <si>
-    <t>No Type</t>
-  </si>
-  <si>
-    <t>Rae Sremmurd</t>
-  </si>
-  <si>
     <t>Yeah
 Ear Drummers
 Bad bitches is the...Mike WiLL Made-It (yeah)
@@ -4466,12 +4628,6 @@
 And let my mama tell it, nigga, I ain't livin' right</t>
   </si>
   <si>
-    <t>Riptide</t>
-  </si>
-  <si>
-    <t>Vance Joy</t>
-  </si>
-  <si>
     <t>I was scared of dentists and the dark
 I was scared of pretty girls and starting conversations
 Oh, all my friends are turning greenYou're the magician's assistant in their dream
@@ -4521,12 +4677,6 @@
 'Cause you're gonna sing the words wrong
 Yeah, I got a lump in my throat
 'Cause you're gonna sing the words wrong</t>
-  </si>
-  <si>
-    <t>Classic Man</t>
-  </si>
-  <si>
-    <t>Jidenna Featuring Roman GianArthur</t>
   </si>
   <si>
     <t>My name calling all night
@@ -4600,12 +4750,6 @@
 Yeah baby I'm a classic man</t>
   </si>
   <si>
-    <t>Ex's &amp; Oh's</t>
-  </si>
-  <si>
-    <t>Elle King</t>
-  </si>
-  <si>
     <t>Well, I had me a boy, turned him into a man
 I showed him all the things that he didn't understand
 Whoa, and then I let him goNow, there's one in California who's been cursing my name
@@ -4647,9 +4791,6 @@
 Like gho-o-osts they want me to make 'em all
 They won't let go
 Ex's and oh's</t>
-  </si>
-  <si>
-    <t>Dear Future Husband</t>
   </si>
   <si>
     <t>Dear future husband
@@ -4700,12 +4841,6 @@
 Oh whoa, future husband, better love me right</t>
   </si>
   <si>
-    <t>Marvin Gaye</t>
-  </si>
-  <si>
-    <t>Charlie Puth Featuring Meghan Trainor</t>
-  </si>
-  <si>
     <t>Let's Marvin Gaye and get it on
 You got the healing that I want
 Just like they say it in the songUntil the dawn, let's Marvin Gaye and get it on
@@ -4750,12 +4885,6 @@
 Until the dawn, let's Marvin Gaye and get it on, oh</t>
   </si>
   <si>
-    <t>Like I'm Gonna Lose You</t>
-  </si>
-  <si>
-    <t>Meghan Trainor Featuring John Legend</t>
-  </si>
-  <si>
     <t>I found myself dreaming in silver and gold
 Like a scene from a movie that every broken heart knows
 We were walking on moonlight, and you pulled me closeSplit second and you disappeared and then I was all alone
@@ -4798,9 +4927,6 @@
 Like I'm gonna lose you
 I'm gonna love you
 Like I'm gonna lose you</t>
-  </si>
-  <si>
-    <t>Habits (Stay High)</t>
   </si>
   <si>
     <t>Oh, oh
@@ -4874,18 +5000,6 @@
 Oh-oh</t>
   </si>
   <si>
-    <t>The Hanging Tree</t>
-  </si>
-  <si>
-    <t>James Newton Howard Featuring Jennifer Lawrence</t>
-  </si>
-  <si>
-    <t>CoCo</t>
-  </si>
-  <si>
-    <t>O.T. Genasis</t>
-  </si>
-  <si>
     <t>I'm in love with the coco
 I'm in love with the coco
 I got it for the low lowI'm in love with the coco
@@ -4933,12 +5047,6 @@
 I'm in love with the coco
 I got it for the low low (turn up)
 I'm in love with the coco</t>
-  </si>
-  <si>
-    <t>Bang Bang</t>
-  </si>
-  <si>
-    <t>Jessie J, Ariana Grande &amp; Nicki Minaj</t>
   </si>
   <si>
     <t>She got a body like an hourglass
@@ -5011,9 +5119,6 @@
 Wait a minute 'till ya</t>
   </si>
   <si>
-    <t>Lay Me Down</t>
-  </si>
-  <si>
     <t>Yes, I do, I believe
 That one day I will be where I was
 Right there, right next to youAnd it's hard, the days just seem so dark
@@ -5051,12 +5156,6 @@
 Can I lay by your side?
 Next to you
 You</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>I LOVE MAKONNEN Featuring Drake</t>
   </si>
   <si>
     <t>Club goin' up, on a Tuesday
@@ -5120,12 +5219,6 @@
 Got your girl in the cut and she choosey</t>
   </si>
   <si>
-    <t>Hit The Quan</t>
-  </si>
-  <si>
-    <t>iLoveMemphis</t>
-  </si>
-  <si>
     <t>Yeah, yeah
 (Hey, Buck Nasty, I like your beats!)
 I finna, I finna, finna show you how toHit the Quan, hit the Quan, hit the Quan, hit the Quan
@@ -5174,12 +5267,6 @@
 Hit the Quan, hit the Quan, hit the Quan, hit the Quan
 I said get down low and swing your arm
 I said get down low and hit the Quan</t>
-  </si>
-  <si>
-    <t>Downtown</t>
-  </si>
-  <si>
-    <t>Macklemore &amp; Ryan Lewis Featuring Eric Nally, Melle Mel, Kool Moe Dee &amp; Grandmaster Caz</t>
   </si>
   <si>
     <t>I went to the moped store, said, "Fuck it."
@@ -5296,9 +5383,6 @@
 (Downtown)</t>
   </si>
   <si>
-    <t>House Party</t>
-  </si>
-  <si>
     <t>You're on the couch, blowin' up my phone
 You don't want to come out, but you don't want to be alone
 It don't take but two to have a little soiréeIf you're in the mood sit tight right where you are, babe
@@ -5338,12 +5422,6 @@
 We're gonna have a house party
 If you wanna be a homebody
 We're gonna have a house party</t>
-  </si>
-  <si>
-    <t>Ayo</t>
-  </si>
-  <si>
-    <t>Chris Brown &amp; Tyga</t>
   </si>
   <si>
     <t>I need you
@@ -5426,12 +5504,6 @@
 Drop top, no roof - Ahh!</t>
   </si>
   <si>
-    <t>Kick The Dust Up</t>
-  </si>
-  <si>
-    <t>Luke Bryan</t>
-  </si>
-  <si>
     <t>Kick the dust up
 All week long it's a farming town, they're making that money growTractors, plows with flashing lights backing up a two lane road
 They take one last lap around,
@@ -5479,12 +5551,6 @@
 Fill your cup up
 That's what's up up
 Let's kick the dust up.</t>
-  </si>
-  <si>
-    <t>Blessings</t>
-  </si>
-  <si>
-    <t>Big Sean Featuring Drake</t>
   </si>
   <si>
     <t>Look
@@ -5579,12 +5645,6 @@
 I'm way up, I feel blessed</t>
   </si>
   <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>George Ezra</t>
-  </si>
-  <si>
     <t>My house in Budapest, my
 My hidden treasure chest
 Golden grand pianoMy beautiful Castillo
@@ -5653,9 +5713,6 @@
 I'd leave it all</t>
   </si>
   <si>
-    <t>Chandelier</t>
-  </si>
-  <si>
     <t>Party girls don't get hurt
 Can't feel anything, when will I learn?
 I push it down, push it downI'm the one "for a good time, call"
@@ -5714,12 +5771,6 @@
 On for tonight, on for tonight</t>
   </si>
   <si>
-    <t>Heartbeat Song</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson</t>
-  </si>
-  <si>
     <t>This is my heartbeat song and I'm gonna play it
 Been so long I forgot how to turn it
 Up, up, up, up all night longOh, up, up all night long
@@ -5774,9 +5825,6 @@
 Turned it on but I know you can take it
 Up, up, up, up all night long
 Oh, up, up all night long</t>
-  </si>
-  <si>
-    <t>Don't</t>
   </si>
   <si>
     <t>Ah-lah-m-lah-lah
@@ -5870,12 +5918,6 @@
 Ah-lah-m-lah-lah</t>
   </si>
   <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Ella Henderson</t>
-  </si>
-  <si>
     <t>I keep going to the river to pray
 'Cause I need something that can wash out the pain
 And at mostI'm sleeping all these demons away
@@ -5948,12 +5990,6 @@
 It keeps me awake</t>
   </si>
   <si>
-    <t>Here</t>
-  </si>
-  <si>
-    <t>Alessia Cara</t>
-  </si>
-  <si>
     <t>I guess for now you've got the last laugh
 I'm sorry if I seem uninterestedOr I'm not listening, or I'm indifferent
 Truly I ain't got no business here
@@ -6013,12 +6049,6 @@
 (Oh oh, oh oh, oh oh)</t>
   </si>
   <si>
-    <t>Waves</t>
-  </si>
-  <si>
-    <t>Mr. Probz</t>
-  </si>
-  <si>
     <t>My face above the water
 My feet can't touch the ground
 Touch the ground, and it feels likeI can see the sands on the horizon
@@ -6040,12 +6070,6 @@
 And it feels like I'm drowning
 Pulling against the stream
 Pulling against the stream</t>
-  </si>
-  <si>
-    <t>El Perdon (Forgiveness)</t>
-  </si>
-  <si>
-    <t>Nicky Jam &amp; Enrique Iglesias</t>
   </si>
   <si>
     <t>I know you moved on
@@ -6098,12 +6122,6 @@
 Haciendo Historia
 Perdón
 Perdón</t>
-  </si>
-  <si>
-    <t>She Knows</t>
-  </si>
-  <si>
-    <t>Ne-Yo Featuring Juicy J</t>
   </si>
   <si>
     <t>You know, from the moment she turn around
@@ -6171,9 +6189,6 @@
 And I know, I know, she knows</t>
   </si>
   <si>
-    <t>Night Changes</t>
-  </si>
-  <si>
     <t>Going out tonight, changes into something red
 Her mother doesn't like that kind of dress
 Everything she never had, she's showing offDriving too fast, moon is breaking through her hair
@@ -6217,9 +6232,6 @@
 It will never change, baby
 It will never change, baby
 It will never change me and you</t>
-  </si>
-  <si>
-    <t>Back To Back</t>
   </si>
   <si>
     <t>Oh man, oh man, oh man
@@ -6282,12 +6294,6 @@
 I took a break from Views, now it's back to that, nigga</t>
   </si>
   <si>
-    <t>How Deep Is Your Love</t>
-  </si>
-  <si>
-    <t>Calvin Harris &amp; Disciples</t>
-  </si>
-  <si>
     <t>I want you to breathe me in
 Let me be your air
 Let me roam your body freelyNo inhibition, no fear
@@ -6341,16 +6347,160 @@
 So tell me, how deep is your love? Can it go deeper?
 So tell me, how deep is your love? Can it go deep?</t>
   </si>
+  <si>
+    <t>You already know who it is
+Silentó
+Silentó
+Silentó
+Gonna do it for me
+Now watch me whip (Kill it!)
+Now watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Want me do it?)
+Now watch me whip (Kill it!)
+Watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Can you do it?)
+Now watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Do the stanky leg (stank)
+Do the stanky leg (stank stank)
+Do the stanky leg (stank)
+Do the stanky leg (stank stank)
+Do the stanky leg (stank)
+Do the stanky leg (stank stank)
+Do the stanky leg (stank)
+Do the stanky leg (stank stank)
+Now break your legs (break 'em, break 'em)
+Break your legs (break 'em dog)
+Tell 'em "break your legs" (break 'em, break 'em)
+Break your legs (break 'em dog)
+Tell 'em "break your legs" (break 'em, break 'em)
+Break your legs (break 'em dog)
+Tell 'em "break your legs" (break 'em, break 'em)
+Break your legs (break 'em dog)
+Now watch me
+Bop bop bop bop bop bop bop bop bop
+Now watch me
+Bop bop bop bop bop bop bop bop bop
+Now watch me whip (Kill it!)
+Now watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Want me do it?)
+Now watch me whip (Kill it!)
+Watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Can you do it?)
+Now watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Now watch me yule (Soulja)
+Now watch me superman (okay!)
+Now watch me yule (Soulja)
+Now watch me superman (okay!)
+Now watch me yule (Soulja)
+Now watch me superman (okay!)
+Now watch me yule (Soulja)
+Now watch me superman (okay!)
+Now watch me duff, duff, duff, duff, duff, duff, duff, duff (Hold on)
+Now watch me duff, duff, duff, duff, duff, duff, duff, duff, duff
+Now watch me
+Bop bop bop bop bop bop bop bop bop
+Now watch me
+Bop bop bop bop bop bop bop bop bop
+Now watch me whip (Kill it!)
+Now watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Want me do it?)
+Now watch me whip (Kill it!)
+Watch me nae nae (Okay!)
+Now watch me whip whip
+Watch me nae nae (Can you do it?)
+Now watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh watch me, watch me
+Ooh ooh ooh ooh
+Crank dat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love Me Like You Do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You're the light, you're the night
+You're the colour of my blood
+You're the cure, you're the pain
+You're the only thing I wanna touch
+Never knew that it could mean so much, so much
+You're the fear, I don't care
+'Cause I've never been so high
+Follow me through the dark
+Let me take you past our satellites
+You can see the world you brought to life, to life
+So love me like you do, lo-lo-love me like you do
+Love me like you do, lo-lo-love me like you do
+Touch me like you do, to-to-touch me like you do
+What are you waiting for?
+Fading in, fading out
+On the edge of paradise
+Every inch of your skin is a Holy Grail I've got to find
+Only you can set my heart on fire, on fire
+Yeah
+I'll let you set the pace
+'Cause I'm not thinking straight
+My head's spinning around, I can't see clear no more
+What are you waiting for?
+Love me like you do, lo-lo-love me like you do
+Love me like you do, lo-lo-love me like you do
+Touch me like you do, to-to-touch me like you do
+What are you waiting for?
+Love me like you do, lo-lo-love me like you do (Like you do)
+Love me like you do, lo-lo-love me like you do (Yeah)
+Touch me like you do, to-to-touch me like you do
+What are you waiting for?
+I'll let you set the pace
+'Cause I'm not thinking straight
+My head's spinning around, I can't see clear no more
+What are you waiting for?
+Love me like you do, lo-lo-love me like you do (Like you do)
+Love me like you do, lo-lo-love me like you do (Yeah)
+Touch me like you do, to-to-touch me like you do
+What are you waiting for?
+Love me like you do, lo-lo-love me like you do (Like you do)
+Love me like you do, lo-lo-love me like you do (Yeah)
+Touch me like you do, to-to-touch me like you do
+What are you waiting for?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6358,8 +6508,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6371,7 +6528,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6379,24 +6536,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6438,7 +6621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6470,9 +6653,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6504,6 +6705,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6679,1102 +6898,1706 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
       <c r="C17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>47</v>
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" t="s">
-        <v>144</v>
       </c>
       <c r="C52" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="D52" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
         <v>146</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
         <v>147</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D54" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="D55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
         <v>149</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D56" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
         <v>150</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="D61" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
         <v>152</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D62" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
         <v>153</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="D64" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
         <v>155</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D65" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
         <v>156</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D66" t="s">
+        <v>243</v>
+      </c>
+      <c r="E66">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="D67" t="s">
+        <v>244</v>
+      </c>
+      <c r="E67">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
         <v>158</v>
       </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D69" t="s">
+        <v>246</v>
+      </c>
+      <c r="E69">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="D70" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
         <v>160</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D71" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="C58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
         <v>162</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D73" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
         <v>163</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D75" t="s">
+        <v>252</v>
+      </c>
+      <c r="E75">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="D76" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" t="s">
+        <v>254</v>
+      </c>
+      <c r="E77">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
         <v>165</v>
       </c>
-      <c r="B60" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="E78">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="D79" t="s">
+        <v>255</v>
+      </c>
+      <c r="E79">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
         <v>167</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D80" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" t="s">
+        <v>257</v>
+      </c>
+      <c r="E81">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
         <v>168</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D82" t="s">
+        <v>258</v>
+      </c>
+      <c r="E82">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="D83" t="s">
+        <v>259</v>
+      </c>
+      <c r="E83">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
         <v>170</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D84" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" t="s">
+        <v>261</v>
+      </c>
+      <c r="E85">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
         <v>171</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D86" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="D87" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
         <v>173</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D88" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
         <v>174</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D89" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" t="s">
+        <v>266</v>
+      </c>
+      <c r="E90">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="D91" t="s">
+        <v>267</v>
+      </c>
+      <c r="E91">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" t="s">
+        <v>268</v>
+      </c>
+      <c r="E92">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
         <v>176</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D93" t="s">
+        <v>269</v>
+      </c>
+      <c r="E93">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
         <v>177</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D94" t="s">
+        <v>270</v>
+      </c>
+      <c r="E94">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="D95" t="s">
+        <v>271</v>
+      </c>
+      <c r="E95">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
         <v>179</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D96" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
         <v>180</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D97" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98" t="s">
+        <v>274</v>
+      </c>
+      <c r="E98">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" t="s">
+        <v>275</v>
+      </c>
+      <c r="E99">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>182</v>
-      </c>
-      <c r="B66" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B67" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>188</v>
-      </c>
-      <c r="B68" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>193</v>
-      </c>
-      <c r="B70" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" t="s">
-        <v>203</v>
-      </c>
-      <c r="C73" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>205</v>
-      </c>
-      <c r="B74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>207</v>
-      </c>
-      <c r="B75" t="s">
-        <v>208</v>
-      </c>
-      <c r="C75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>210</v>
-      </c>
-      <c r="B76" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D100" t="s">
+        <v>276</v>
+      </c>
+      <c r="E100">
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>213</v>
-      </c>
-      <c r="B77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>215</v>
-      </c>
-      <c r="B78" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>217</v>
-      </c>
-      <c r="B79" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" t="s">
-        <v>221</v>
-      </c>
-      <c r="C80" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>223</v>
-      </c>
-      <c r="B81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>225</v>
-      </c>
-      <c r="B82" t="s">
-        <v>226</v>
-      </c>
-      <c r="C82" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>228</v>
-      </c>
-      <c r="B83" t="s">
-        <v>229</v>
-      </c>
-      <c r="C83" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>231</v>
-      </c>
-      <c r="B84" t="s">
-        <v>232</v>
-      </c>
-      <c r="C84" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>236</v>
-      </c>
-      <c r="B86" t="s">
-        <v>237</v>
-      </c>
-      <c r="C86" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>239</v>
-      </c>
-      <c r="B87" t="s">
-        <v>240</v>
-      </c>
-      <c r="C87" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B88" t="s">
-        <v>243</v>
-      </c>
-      <c r="C88" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>245</v>
-      </c>
-      <c r="B89" t="s">
-        <v>246</v>
-      </c>
-      <c r="C89" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>248</v>
-      </c>
-      <c r="B90" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>250</v>
-      </c>
-      <c r="B91" t="s">
-        <v>251</v>
-      </c>
-      <c r="C91" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>253</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>255</v>
-      </c>
-      <c r="B93" t="s">
-        <v>256</v>
-      </c>
-      <c r="C93" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>258</v>
-      </c>
-      <c r="B94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C94" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>261</v>
-      </c>
-      <c r="B95" t="s">
-        <v>262</v>
-      </c>
-      <c r="C95" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>264</v>
-      </c>
-      <c r="B96" t="s">
-        <v>265</v>
-      </c>
-      <c r="C96" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>267</v>
-      </c>
-      <c r="B97" t="s">
-        <v>268</v>
-      </c>
-      <c r="C97" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>270</v>
-      </c>
-      <c r="B98" t="s">
-        <v>180</v>
-      </c>
-      <c r="C98" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>272</v>
-      </c>
-      <c r="B99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>274</v>
-      </c>
-      <c r="B100" t="s">
-        <v>275</v>
-      </c>
-      <c r="C100" t="s">
-        <v>276</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>